--- a/outputFile/rhel4.xlsx
+++ b/outputFile/rhel4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>rhel_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rhel_2</t>
+          <t>rhel_only</t>
         </is>
       </c>
     </row>
@@ -451,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.4782608695652174, 18], [0.4117647058823529, 10], [0.3846153846153846, 4]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.5333333333333333, 5], [0.46153846153846156, 3], [0.21052631578947367, 0]]</t>
+          <t>[[0.5454545454545455, 15], [0.43749999999999994, 8], [0.46153846153846156, 3]]</t>
         </is>
       </c>
     </row>
@@ -466,12 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.42105263157894735, 13], [0.45161290322580644, 7], [0.3636363636363636, 1]]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[[0.48, 2], [0.3, 0], [0.1111111111111111, 0]]</t>
+          <t>[[0.45161290322580644, 7], [0.3478260869565218, 2], [0.2, 1]]</t>
         </is>
       </c>
     </row>
@@ -481,12 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.5142857142857143, 9], [0.5, 4], [0.38095238095238093, 0]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[[0.3, 0], [0.1111111111111111, 0], [0.1111111111111111, 0]]</t>
+          <t>[[0.38095238095238093, 0], [0.3, 0], [0.1111111111111111, 0]]</t>
         </is>
       </c>
     </row>
